--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.157199999999993</v>
+        <v>-6.376099999999993</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.09829999999999</v>
+        <v>-11.26239999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -522,10 +522,10 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.683799999999989</v>
+        <v>-8.715899999999991</v>
       </c>
       <c r="E5" t="n">
-        <v>12.68099999999998</v>
+        <v>12.56809999999998</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.71450000000001</v>
+        <v>13.69710000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.3244</v>
+        <v>13.34000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.75260000000001</v>
+        <v>-12.5391</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -706,10 +706,10 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.61760000000001</v>
+        <v>-12.53520000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.431100000000008</v>
+        <v>-8.370900000000008</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -729,7 +729,7 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>12.99850000000001</v>
+        <v>13.52520000000001</v>
       </c>
     </row>
     <row r="18">
@@ -791,13 +791,13 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.22190000000001</v>
+        <v>-13.36330000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.9044</v>
+        <v>13.09529999999999</v>
       </c>
     </row>
     <row r="22">
@@ -825,7 +825,7 @@
         <v>5.8</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.8819</v>
+        <v>-12.1446</v>
       </c>
       <c r="D23" t="n">
         <v>-8.529999999999999</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.96429999999999</v>
+        <v>-11.15069999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
